--- a/data/snis-agregado-embasa-e-outras-serie-temporal.xlsx
+++ b/data/snis-agregado-embasa-e-outras-serie-temporal.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\saneamento-bahia-master\saneamento-bahia-master\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18110" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Agregado-20200609180249" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Agregado-20200609180249" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,236 +24,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="67">
-  <si>
-    <t xml:space="preserve">Código do Município</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Município</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ano de Referência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código do Prestador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sigla do Prestador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abrangência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de Serviço</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natureza Jurídica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G05A - Quantidade total de municípios atendidos com abastecimento de água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G05B - Quantidade total de municípios atendidos com esgotamento sanitário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G12A - População total residente do(s) município(s) com abastecimento de água, segundo o IBGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G12B - População total residente do(s) município(s) com esgotamento sanitário, segundo o IBGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE005 - Quantidade total de municípios atendidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG001 - População total atendida com abastecimento de água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG002 - Quantidade de ligações ativas de água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES001 - População total atendida com esgotamento sanitário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES002 - Quantidade de ligações ativas de esgotos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN023 - Investimento realizado em abastecimento de água pelo prestador de serviços</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN024 - Investimento realizado em esgotamento sanitário pelo prestador de serviços</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN026 - Quantidade total de empregados próprios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN033 - Investimentos totais realizados pelo prestador de serviços</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN042 - Investimento realizado em abastecimento de água pelo(s) município(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN043 - Investimento realizado em esgotamento sanitário pelo(s) município(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN048 - Investimentos totais realizados pelo(s) município(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN052 - Investimento realizado em abastecimento de água pelo estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN053 - Investimento realizado em esgotamento sanitário pelo estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN058 - Investimentos totais realizados pelo estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN004 - Tarifa média praticada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN005 - Tarifa média de água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN006 - Tarifa média de esgoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN012 - Indicador de desempenho financeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN013 - Índice de perdas faturamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN015 - Índice de coleta de esgoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN016 - Índice de tratamento de esgoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN022 - Consumo médio percapita de água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN024 - Índice de atendimento urbano de esgoto referido aos municípios atendidos com água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN045 - Índice de produtividade: empregados próprios por 1000 ligações de água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN046 - Índice de esgoto tratado referido à água consumida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN047 - Índice de atendimento urbano de esgoto referido aos municípios atendidos com esgoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN048 - Índice de produtividade: empregados próprios por 1000 ligações de água + esgoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN056 - Índice de atendimento total de esgoto referido aos municípios atendidos com água</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empresa Baiana de Águas e Saneamento S.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMBASA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Água e Esgoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sociedade de economia mista com administração pública</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortaleza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Companhia de Água e Esgoto do Ceará</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAGECE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belo Horizonte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Companhia de Saneamento de Minas Gerais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPASA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Companhia Pernambucana de Saneamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curitiba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Companhia de Saneamento do Paraná</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANEPAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sociedade de economia mista com administração privada</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="68">
+  <si>
+    <t>Código do Município</t>
+  </si>
+  <si>
+    <t>Município</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Ano de Referência</t>
+  </si>
+  <si>
+    <t>Código do Prestador</t>
+  </si>
+  <si>
+    <t>Prestador</t>
+  </si>
+  <si>
+    <t>Sigla do Prestador</t>
+  </si>
+  <si>
+    <t>Abrangência</t>
+  </si>
+  <si>
+    <t>Tipo de Serviço</t>
+  </si>
+  <si>
+    <t>Natureza Jurídica</t>
+  </si>
+  <si>
+    <t>G05A - Quantidade total de municípios atendidos com abastecimento de água</t>
+  </si>
+  <si>
+    <t>G05B - Quantidade total de municípios atendidos com esgotamento sanitário</t>
+  </si>
+  <si>
+    <t>G12A - População total residente do(s) município(s) com abastecimento de água, segundo o IBGE</t>
+  </si>
+  <si>
+    <t>G12B - População total residente do(s) município(s) com esgotamento sanitário, segundo o IBGE</t>
+  </si>
+  <si>
+    <t>GE005 - Quantidade total de municípios atendidos</t>
+  </si>
+  <si>
+    <t>AG001 - População total atendida com abastecimento de água</t>
+  </si>
+  <si>
+    <t>AG002 - Quantidade de ligações ativas de água</t>
+  </si>
+  <si>
+    <t>ES001 - População total atendida com esgotamento sanitário</t>
+  </si>
+  <si>
+    <t>ES002 - Quantidade de ligações ativas de esgotos</t>
+  </si>
+  <si>
+    <t>FN023 - Investimento realizado em abastecimento de água pelo prestador de serviços</t>
+  </si>
+  <si>
+    <t>FN024 - Investimento realizado em esgotamento sanitário pelo prestador de serviços</t>
+  </si>
+  <si>
+    <t>FN026 - Quantidade total de empregados próprios</t>
+  </si>
+  <si>
+    <t>FN033 - Investimentos totais realizados pelo prestador de serviços</t>
+  </si>
+  <si>
+    <t>FN042 - Investimento realizado em abastecimento de água pelo(s) município(s)</t>
+  </si>
+  <si>
+    <t>FN043 - Investimento realizado em esgotamento sanitário pelo(s) município(s)</t>
+  </si>
+  <si>
+    <t>FN048 - Investimentos totais realizados pelo(s) município(s)</t>
+  </si>
+  <si>
+    <t>FN052 - Investimento realizado em abastecimento de água pelo estado</t>
+  </si>
+  <si>
+    <t>FN053 - Investimento realizado em esgotamento sanitário pelo estado</t>
+  </si>
+  <si>
+    <t>FN058 - Investimentos totais realizados pelo estado</t>
+  </si>
+  <si>
+    <t>IN004 - Tarifa média praticada</t>
+  </si>
+  <si>
+    <t>IN005 - Tarifa média de água</t>
+  </si>
+  <si>
+    <t>IN006 - Tarifa média de esgoto</t>
+  </si>
+  <si>
+    <t>IN012 - Indicador de desempenho financeiro</t>
+  </si>
+  <si>
+    <t>IN013 - Índice de perdas faturamento</t>
+  </si>
+  <si>
+    <t>IN015 - Índice de coleta de esgoto</t>
+  </si>
+  <si>
+    <t>IN016 - Índice de tratamento de esgoto</t>
+  </si>
+  <si>
+    <t>IN022 - Consumo médio percapita de água</t>
+  </si>
+  <si>
+    <t>IN024 - Índice de atendimento urbano de esgoto referido aos municípios atendidos com água</t>
+  </si>
+  <si>
+    <t>IN045 - Índice de produtividade: empregados próprios por 1000 ligações de água</t>
+  </si>
+  <si>
+    <t>IN046 - Índice de esgoto tratado referido à água consumida</t>
+  </si>
+  <si>
+    <t>IN047 - Índice de atendimento urbano de esgoto referido aos municípios atendidos com esgoto</t>
+  </si>
+  <si>
+    <t>IN048 - Índice de produtividade: empregados próprios por 1000 ligações de água + esgoto</t>
+  </si>
+  <si>
+    <t>IN056 - Índice de atendimento total de esgoto referido aos municípios atendidos com água</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Empresa Baiana de Águas e Saneamento S.A.</t>
+  </si>
+  <si>
+    <t>EMBASA</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Água e Esgoto</t>
+  </si>
+  <si>
+    <t>Sociedade de economia mista com administração pública</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Companhia de Água e Esgoto do Ceará</t>
+  </si>
+  <si>
+    <t>CAGECE</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Companhia de Saneamento de Minas Gerais</t>
+  </si>
+  <si>
+    <t>COPASA</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Companhia Pernambucana de Saneamento</t>
+  </si>
+  <si>
+    <t>COMPESA</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Companhia de Saneamento do Paraná</t>
+  </si>
+  <si>
+    <t>SANEPAR</t>
+  </si>
+  <si>
+    <t>Sociedade de economia mista com administração privada</t>
+  </si>
+  <si>
+    <t>IN055 - Índice de atendimento total de água</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -261,7 +250,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -269,5767 +258,6143 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Escritório">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Escritório">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Escritório">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AQ46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="47.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="64.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="63.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="80.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="80.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="52.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="40.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="50.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="42.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="70.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="69.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="41.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="55.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="65.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="64.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="50.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="58.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="57.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="43.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="25.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="36.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="31.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="29.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="32.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="35.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="76.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="66.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="49.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="77.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="73.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="74.38"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="39.453125" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
+    <col min="10" max="10" width="48" customWidth="1"/>
+    <col min="11" max="11" width="64.36328125" customWidth="1"/>
+    <col min="12" max="12" width="63.54296875" customWidth="1"/>
+    <col min="13" max="13" width="80.90625" customWidth="1"/>
+    <col min="14" max="14" width="80.08984375" customWidth="1"/>
+    <col min="15" max="15" width="42.08984375" customWidth="1"/>
+    <col min="16" max="16" width="52" customWidth="1"/>
+    <col min="17" max="17" width="40.08984375" customWidth="1"/>
+    <col min="18" max="18" width="50.90625" customWidth="1"/>
+    <col min="19" max="19" width="42.36328125" customWidth="1"/>
+    <col min="20" max="20" width="70.90625" customWidth="1"/>
+    <col min="21" max="21" width="69.90625" customWidth="1"/>
+    <col min="22" max="22" width="41.54296875" customWidth="1"/>
+    <col min="23" max="23" width="55.453125" customWidth="1"/>
+    <col min="24" max="24" width="65.453125" customWidth="1"/>
+    <col min="25" max="25" width="64.54296875" customWidth="1"/>
+    <col min="26" max="26" width="50.08984375" customWidth="1"/>
+    <col min="27" max="27" width="58.90625" customWidth="1"/>
+    <col min="28" max="28" width="58" customWidth="1"/>
+    <col min="29" max="29" width="43.54296875" customWidth="1"/>
+    <col min="30" max="30" width="25.6328125" customWidth="1"/>
+    <col min="31" max="31" width="24.6328125" customWidth="1"/>
+    <col min="32" max="32" width="26.1796875" customWidth="1"/>
+    <col min="33" max="33" width="37" customWidth="1"/>
+    <col min="34" max="34" width="31.453125" customWidth="1"/>
+    <col min="35" max="35" width="29.1796875" customWidth="1"/>
+    <col min="36" max="36" width="33" customWidth="1"/>
+    <col min="37" max="37" width="35.90625" customWidth="1"/>
+    <col min="38" max="38" width="76.36328125" customWidth="1"/>
+    <col min="39" max="39" width="66.1796875" customWidth="1"/>
+    <col min="40" max="40" width="49.1796875" customWidth="1"/>
+    <col min="41" max="41" width="77.81640625" customWidth="1"/>
+    <col min="42" max="42" width="73.81640625" customWidth="1"/>
+    <col min="43" max="43" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="74.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>292740</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>2018</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>29274000</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>366</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>106</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>12933150</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>8682143</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2">
         <v>366</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2">
         <v>10360517</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>3017734</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2">
         <v>4664717</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2">
         <v>1240584</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2">
         <v>246246529.13</v>
       </c>
-      <c r="U2" s="0" t="n">
-        <v>195381930.65</v>
-      </c>
-      <c r="V2" s="0" t="n">
+      <c r="U2">
+        <v>195381930.65000001</v>
+      </c>
+      <c r="V2">
         <v>5039</v>
       </c>
-      <c r="W2" s="0" t="n">
-        <v>524845582.54</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>22163794.89</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>2664783.3</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>24828578.19</v>
-      </c>
-      <c r="AD2" s="0" t="n">
+      <c r="W2">
+        <v>524845582.54000002</v>
+      </c>
+      <c r="AA2">
+        <v>22163794.890000001</v>
+      </c>
+      <c r="AB2">
+        <v>2664783.2999999998</v>
+      </c>
+      <c r="AC2">
+        <v>24828578.190000001</v>
+      </c>
+      <c r="AD2">
         <v>5.15</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>5.57</v>
       </c>
-      <c r="AF2" s="0" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AF2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="AG2">
         <v>102.53</v>
       </c>
-      <c r="AH2" s="0" t="n">
-        <v>39.13</v>
-      </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AH2">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="AI2">
         <v>58.19</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AJ2">
         <v>98.51</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AK2">
         <v>108.9</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AL2">
         <v>48.34</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AM2">
         <v>1.61</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AN2">
         <v>57.33</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AO2">
         <v>62.14</v>
       </c>
-      <c r="AP2" s="0" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AP2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>80.11</v>
+      </c>
+      <c r="AR2">
         <v>36.07</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>292740</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>2017</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>29274000</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>366</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3">
         <v>104</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3">
         <v>13395989</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3">
         <v>8921886</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3">
         <v>366</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3">
         <v>10429662</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3">
         <v>2962696</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3">
         <v>4580094</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3">
         <v>1193921</v>
       </c>
-      <c r="T3" s="0" t="n">
-        <v>200912738.9</v>
-      </c>
-      <c r="U3" s="0" t="n">
+      <c r="T3">
+        <v>200912738.90000001</v>
+      </c>
+      <c r="U3">
         <v>140561286.75</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3">
         <v>4583</v>
       </c>
-      <c r="W3" s="0" t="n">
-        <v>431654572.48</v>
-      </c>
-      <c r="AA3" s="0" t="n">
+      <c r="W3">
+        <v>431654572.48000002</v>
+      </c>
+      <c r="AA3">
         <v>14087887.01</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AB3">
         <v>107061.57</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AC3">
         <v>14194948.58</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AD3">
         <v>4.04</v>
       </c>
-      <c r="AE3" s="0" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AE3">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AF3">
         <v>3.58</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AG3">
         <v>95.44</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AH3">
         <v>25.93</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AI3">
         <v>56.18</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AJ3">
         <v>99.08</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AK3">
         <v>108.14</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AL3">
         <v>46.02</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AM3">
         <v>1.6</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AN3">
         <v>55.67</v>
       </c>
-      <c r="AO3" s="0" t="n">
+      <c r="AO3">
         <v>59.44</v>
       </c>
-      <c r="AP3" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AQ3" s="0" t="n">
+      <c r="AP3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AQ3">
+        <v>77.86</v>
+      </c>
+      <c r="AR3">
         <v>34.19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>292740</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>2016</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>29274000</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>365</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>102</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>13323546</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>8849390</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4">
         <v>365</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>10396203</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4">
         <v>2924222</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4">
         <v>4393994</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4">
         <v>1113941</v>
       </c>
-      <c r="T4" s="0" t="n">
-        <v>209286707.65</v>
-      </c>
-      <c r="U4" s="0" t="n">
+      <c r="T4">
+        <v>209286707.65000001</v>
+      </c>
+      <c r="U4">
         <v>165794992.13</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4">
         <v>4851</v>
       </c>
-      <c r="W4" s="0" t="n">
-        <v>458103353.72</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>34781455.91</v>
-      </c>
-      <c r="AB4" s="0" t="n">
+      <c r="W4">
+        <v>458103353.72000003</v>
+      </c>
+      <c r="AA4">
+        <v>34781455.909999996</v>
+      </c>
+      <c r="AB4">
         <v>1418714.54</v>
       </c>
-      <c r="AC4" s="0" t="n">
-        <v>36200170.45</v>
-      </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AC4">
+        <v>36200170.450000003</v>
+      </c>
+      <c r="AD4">
         <v>3.36</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AE4">
         <v>3.75</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AF4">
         <v>2.93</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AG4">
         <v>94.73</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AH4">
         <v>24.43</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AI4">
         <v>58.23</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AJ4">
         <v>100</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AK4">
         <v>104.47</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AL4">
         <v>44.69</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AM4">
         <v>1.63</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AN4">
         <v>58.23</v>
       </c>
-      <c r="AO4" s="0" t="n">
+      <c r="AO4">
         <v>57.86</v>
       </c>
-      <c r="AP4" s="0" t="n">
+      <c r="AP4">
         <v>1.19</v>
       </c>
-      <c r="AQ4" s="0" t="n">
-        <v>32.98</v>
+      <c r="AQ4">
+        <v>78.03</v>
+      </c>
+      <c r="AR4">
+        <v>32.979999999999997</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>292740</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>2015</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>29274000</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>366</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>96</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>13272053</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5">
         <v>8652225</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5">
         <v>366</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>10309464</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5">
         <v>2872124</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5">
         <v>4244983</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5">
         <v>1039002</v>
       </c>
-      <c r="T5" s="0" t="n">
-        <v>172663061.89</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>190809068.24</v>
-      </c>
-      <c r="V5" s="0" t="n">
+      <c r="T5">
+        <v>172663061.88999999</v>
+      </c>
+      <c r="U5">
+        <v>190809068.24000001</v>
+      </c>
+      <c r="V5">
         <v>4602</v>
       </c>
-      <c r="W5" s="0" t="n">
-        <v>455154986.15</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>52303493.66</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>61234782.52</v>
-      </c>
-      <c r="AC5" s="0" t="n">
-        <v>113538276.18</v>
-      </c>
-      <c r="AD5" s="0" t="n">
+      <c r="W5">
+        <v>455154986.14999998</v>
+      </c>
+      <c r="AA5">
+        <v>52303493.659999996</v>
+      </c>
+      <c r="AB5">
+        <v>61234782.520000003</v>
+      </c>
+      <c r="AC5">
+        <v>113538276.18000001</v>
+      </c>
+      <c r="AD5">
         <v>3.68</v>
       </c>
-      <c r="AE5" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AE5">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AF5">
         <v>3.25</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AG5">
         <v>98.44</v>
       </c>
-      <c r="AH5" s="0" t="n">
-        <v>34.95</v>
-      </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AH5">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="AI5">
         <v>51.78</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AJ5">
         <v>99</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AK5">
         <v>107.94</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AL5">
         <v>43.46</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AM5">
         <v>1.63</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AN5">
         <v>51.26</v>
       </c>
-      <c r="AO5" s="0" t="n">
+      <c r="AO5">
         <v>57.06</v>
       </c>
-      <c r="AP5" s="0" t="n">
+      <c r="AP5">
         <v>1.21</v>
       </c>
-      <c r="AQ5" s="0" t="n">
+      <c r="AQ5">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="AR5">
         <v>31.98</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>292740</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>2014</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>29274000</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>364</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>94</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>13182830</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>8518070</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6">
         <v>364</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>10193976</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6">
         <v>2809530</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6">
         <v>3996348</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>962688</v>
       </c>
-      <c r="T6" s="0" t="n">
-        <v>270046655.97</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>197204949.89</v>
-      </c>
-      <c r="V6" s="0" t="n">
+      <c r="T6">
+        <v>270046655.97000003</v>
+      </c>
+      <c r="U6">
+        <v>197204949.88999999</v>
+      </c>
+      <c r="V6">
         <v>4675</v>
       </c>
-      <c r="W6" s="0" t="n">
-        <v>567335992.53</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="0" t="n">
+      <c r="W6">
+        <v>567335992.52999997</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>3.1</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AE6">
         <v>3.54</v>
       </c>
-      <c r="AF6" s="0" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AF6">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AG6">
         <v>102.57</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AH6">
         <v>29.75</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AI6">
         <v>50.67</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AJ6">
         <v>99.05</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AK6">
         <v>108.01</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AL6">
         <v>41.21</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AM6">
         <v>1.67</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AN6">
         <v>50.19</v>
       </c>
-      <c r="AO6" s="0" t="n">
+      <c r="AO6">
         <v>54.56</v>
       </c>
-      <c r="AP6" s="0" t="n">
+      <c r="AP6">
         <v>1.25</v>
       </c>
-      <c r="AQ6" s="0" t="n">
+      <c r="AQ6">
+        <v>77.33</v>
+      </c>
+      <c r="AR6">
         <v>30.31</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>292740</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>29274000</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>364</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>90</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>13110166</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>8241158</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7">
         <v>364</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>10005316</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>2689734</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7">
         <v>3761588</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7">
         <v>875897</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7">
         <v>225737027.56</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7">
         <v>289333080.5</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7">
         <v>4534</v>
       </c>
-      <c r="W7" s="0" t="n">
-        <v>555626168.51</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="0" t="n">
+      <c r="W7">
+        <v>555626168.50999999</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <v>3.05</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AE7">
         <v>3.34</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AF7">
         <v>2.41</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AG7">
         <v>91.98</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AH7">
         <v>33</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AI7">
         <v>51.39</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AJ7">
         <v>98.45</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AK7">
         <v>105.75</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AL7">
         <v>39.22</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AM7">
         <v>1.82</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AN7">
         <v>50.59</v>
       </c>
-      <c r="AO7" s="0" t="n">
+      <c r="AO7">
         <v>53.17</v>
       </c>
-      <c r="AP7" s="0" t="n">
+      <c r="AP7">
         <v>1.39</v>
       </c>
-      <c r="AQ7" s="0" t="n">
+      <c r="AQ7">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="AR7">
         <v>28.69</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>292740</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>2012</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>29274000</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>362</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>81</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>12328725</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8">
         <v>7522194</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8">
         <v>362</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>9875200</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8">
         <v>2603685</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8">
         <v>3637264</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8">
         <v>783543</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8">
         <v>330624000</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U8">
         <v>323000000</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8">
         <v>5107</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8">
         <v>721302542</v>
       </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AD8">
         <v>2.71</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AE8">
         <v>2.91</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AF8">
         <v>2.19</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AG8">
         <v>97.98</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AH8">
         <v>26.3</v>
       </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AI8">
         <v>57.38</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AJ8">
         <v>99.16</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AK8">
         <v>111.8</v>
       </c>
-      <c r="AL8" s="0" t="n">
-        <v>40.05</v>
-      </c>
-      <c r="AM8" s="0" t="n">
+      <c r="AL8">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="AM8">
         <v>1.91</v>
       </c>
-      <c r="AN8" s="0" t="n">
+      <c r="AN8">
         <v>56.9</v>
       </c>
-      <c r="AO8" s="0" t="n">
+      <c r="AO8">
         <v>55.16</v>
       </c>
-      <c r="AP8" s="0" t="n">
+      <c r="AP8">
         <v>1.48</v>
       </c>
-      <c r="AQ8" s="0" t="n">
+      <c r="AQ8">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AR8">
         <v>29.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>292740</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>2011</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>29274000</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>361</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>72</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9">
         <v>12247073</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9">
         <v>7156155</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>361</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>9513642</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9">
         <v>2512839</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9">
         <v>3365680</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9">
         <v>713533</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9">
         <v>162264000</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9">
         <v>294718000</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9">
         <v>4681</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9">
         <v>508512549</v>
       </c>
-      <c r="X9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AE9" s="0" t="n">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AE9">
         <v>2.64</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AF9">
         <v>1.96</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AG9">
         <v>92.21</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AH9">
         <v>26.48</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AI9">
         <v>47.11</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AJ9">
         <v>98.72</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AK9">
         <v>115.4</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AL9">
         <v>37.39</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AM9">
         <v>1.75</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AN9">
         <v>46.5</v>
       </c>
-      <c r="AO9" s="0" t="n">
+      <c r="AO9">
         <v>53.17</v>
       </c>
-      <c r="AP9" s="0" t="n">
+      <c r="AP9">
         <v>1.37</v>
       </c>
-      <c r="AQ9" s="0" t="n">
+      <c r="AQ9">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="AR9">
         <v>27.48</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>292740</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>2010</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>29274000</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>360</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10">
         <v>70</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10">
         <v>12162838</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10">
         <v>7007783</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10">
         <v>360</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10">
         <v>9052558</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10">
         <v>2416316</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10">
         <v>3111000</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10">
         <v>658336</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10">
         <v>236665000</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10">
         <v>385873000</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10">
         <v>3961</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10">
         <v>663766395.13</v>
       </c>
-      <c r="AD10" s="0" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AD10">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AE10">
         <v>2.34</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AF10">
         <v>1.78</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AG10">
         <v>95.98</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AH10">
         <v>28.57</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AI10">
         <v>44.29</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AJ10">
         <v>98.89</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AK10">
         <v>118.6</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AL10">
         <v>34.83</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AM10">
         <v>1.6</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AN10">
         <v>43.79</v>
       </c>
-      <c r="AO10" s="0" t="n">
+      <c r="AO10">
         <v>49.97</v>
       </c>
-      <c r="AP10" s="0" t="n">
+      <c r="AP10">
         <v>1.26</v>
       </c>
-      <c r="AQ10" s="0" t="n">
+      <c r="AQ10">
+        <v>74.430000000000007</v>
+      </c>
+      <c r="AR10">
         <v>25.58</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>230440</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>2018</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>23044000</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>152</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11">
         <v>74</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11">
         <v>7736842</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11">
         <v>6069278</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11">
         <v>152</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11">
         <v>4171366</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11">
         <v>1642486</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11">
         <v>1818411</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11">
         <v>617140</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11">
         <v>127228355.12</v>
       </c>
-      <c r="U11" s="0" t="n">
-        <v>44835952.52</v>
-      </c>
-      <c r="V11" s="0" t="n">
+      <c r="U11">
+        <v>44835952.520000003</v>
+      </c>
+      <c r="V11">
         <v>1559</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11">
         <v>172838099.88</v>
       </c>
-      <c r="X11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="0" t="n">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>3.59</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AE11">
         <v>3.47</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AF11">
         <v>3.91</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AG11">
         <v>108.3</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AH11">
         <v>26.5</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AI11">
         <v>41.89</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AJ11">
         <v>100</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AK11">
         <v>126.18</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AL11">
         <v>30.13</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AM11">
         <v>0.98</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AN11">
         <v>41.89</v>
       </c>
-      <c r="AO11" s="0" t="n">
+      <c r="AO11">
         <v>35.79</v>
       </c>
-      <c r="AP11" s="0" t="n">
+      <c r="AP11">
         <v>0.71</v>
       </c>
-      <c r="AQ11" s="0" t="n">
+      <c r="AQ11">
+        <v>53.92</v>
+      </c>
+      <c r="AR11">
         <v>23.5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>230440</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>2017</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>23044000</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>152</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12">
         <v>74</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12">
         <v>7690540</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12">
         <v>6033853</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12">
         <v>152</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12">
         <v>4493977</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12">
         <v>1634080</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12">
         <v>1865869</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12">
         <v>593403</v>
       </c>
-      <c r="T12" s="0" t="n">
-        <v>159664782.15</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>20007527.89</v>
-      </c>
-      <c r="V12" s="0" t="n">
+      <c r="T12">
+        <v>159664782.15000001</v>
+      </c>
+      <c r="U12">
+        <v>20007527.890000001</v>
+      </c>
+      <c r="V12">
         <v>1636</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="W12">
         <v>180929840.16</v>
       </c>
-      <c r="X12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="0" t="n">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <v>3.14</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AE12">
         <v>3.03</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AF12">
         <v>3.43</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AG12">
         <v>101.48</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AH12">
         <v>26.34</v>
       </c>
-      <c r="AI12" s="0" t="n">
-        <v>39.55</v>
-      </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AI12">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="AJ12">
         <v>99.59</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AK12">
         <v>118.64</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AL12">
         <v>31.1</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AM12">
         <v>1.01</v>
       </c>
-      <c r="AN12" s="0" t="n">
-        <v>39.38</v>
-      </c>
-      <c r="AO12" s="0" t="n">
+      <c r="AN12">
+        <v>39.380000000000003</v>
+      </c>
+      <c r="AO12">
         <v>36.94</v>
       </c>
-      <c r="AP12" s="0" t="n">
+      <c r="AP12">
         <v>0.74</v>
       </c>
-      <c r="AQ12" s="0" t="n">
+      <c r="AQ12">
+        <v>58.44</v>
+      </c>
+      <c r="AR12">
         <v>24.26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>230440</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>2016</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>23044000</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>151</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13">
         <v>74</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13">
         <v>7625968</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13">
         <v>5990055</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13">
         <v>151</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13">
         <v>4541683</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13">
         <v>1640545</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13">
         <v>1812989</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13">
         <v>571608</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="T13">
         <v>124353600.17</v>
       </c>
-      <c r="U13" s="0" t="n">
-        <v>27993440.7</v>
-      </c>
-      <c r="V13" s="0" t="n">
+      <c r="U13">
+        <v>27993440.699999999</v>
+      </c>
+      <c r="V13">
         <v>1658</v>
       </c>
-      <c r="W13" s="0" t="n">
-        <v>152382444.05</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="0" t="n">
+      <c r="W13">
+        <v>152382444.05000001</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
         <v>2.85</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AE13">
         <v>2.76</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AF13">
         <v>3.1</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AG13">
         <v>111.08</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AH13">
         <v>22.98</v>
       </c>
-      <c r="AI13" s="0" t="n">
-        <v>37.73</v>
-      </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AI13">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="AJ13">
         <v>100</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AK13">
         <v>123.87</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AL13">
         <v>30.46</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AM13">
         <v>1.03</v>
       </c>
-      <c r="AN13" s="0" t="n">
-        <v>37.73</v>
-      </c>
-      <c r="AO13" s="0" t="n">
-        <v>36.16</v>
-      </c>
-      <c r="AP13" s="0" t="n">
+      <c r="AN13">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="AO13">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="AP13">
         <v>0.77</v>
       </c>
-      <c r="AQ13" s="0" t="n">
+      <c r="AQ13">
+        <v>59.56</v>
+      </c>
+      <c r="AR13">
         <v>23.77</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>230440</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>2015</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>23044000</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>151</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14">
         <v>73</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14">
         <v>7572432</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14">
         <v>5931634</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14">
         <v>151</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14">
         <v>4518268</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14">
         <v>1613578</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14">
         <v>1765324</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14">
         <v>544028</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="T14">
         <v>128907579.69</v>
       </c>
-      <c r="U14" s="0" t="n">
-        <v>75793024.14</v>
-      </c>
-      <c r="V14" s="0" t="n">
+      <c r="U14">
+        <v>75793024.140000001</v>
+      </c>
+      <c r="V14">
         <v>1696</v>
       </c>
-      <c r="W14" s="0" t="n">
-        <v>214161936.23</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="0" t="n">
+      <c r="W14">
+        <v>214161936.22999999</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <v>2.41</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AE14">
         <v>2.34</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AF14">
         <v>2.6</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AG14">
         <v>86.91</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AH14">
         <v>26.23</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AI14">
         <v>37.69</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AJ14">
         <v>100</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AK14">
         <v>127.27</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AL14">
         <v>29.88</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AM14">
         <v>1.07</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AN14">
         <v>37.69</v>
       </c>
-      <c r="AO14" s="0" t="n">
-        <v>35.55</v>
-      </c>
-      <c r="AP14" s="0" t="n">
+      <c r="AO14">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="AP14">
         <v>0.8</v>
       </c>
-      <c r="AQ14" s="0" t="n">
+      <c r="AQ14">
+        <v>59.67</v>
+      </c>
+      <c r="AR14">
         <v>23.31</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>230440</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>2014</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>23044000</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>151</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15">
         <v>73</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15">
         <v>7516665</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15">
         <v>5884120</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15">
         <v>151</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15">
         <v>4479210</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15">
         <v>1567671</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15">
         <v>1714183</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15">
         <v>510813</v>
       </c>
-      <c r="T15" s="0" t="n">
-        <v>138151750.58</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>97671299.99</v>
-      </c>
-      <c r="V15" s="0" t="n">
+      <c r="T15">
+        <v>138151750.58000001</v>
+      </c>
+      <c r="U15">
+        <v>97671299.989999995</v>
+      </c>
+      <c r="V15">
         <v>1709</v>
       </c>
-      <c r="W15" s="0" t="n">
-        <v>245493796.01</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="0" t="n">
+      <c r="W15">
+        <v>245493796.00999999</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
         <v>2.35</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AE15">
         <v>2.29</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AF15">
         <v>2.54</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AG15">
         <v>70.17</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AH15">
         <v>26.5</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AI15">
         <v>36.99</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AJ15">
         <v>100</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AK15">
         <v>126.55</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AL15">
         <v>29.24</v>
       </c>
-      <c r="AM15" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AM15">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AN15">
         <v>36.99</v>
       </c>
-      <c r="AO15" s="0" t="n">
+      <c r="AO15">
         <v>34.81</v>
       </c>
-      <c r="AP15" s="0" t="n">
+      <c r="AP15">
         <v>0.83</v>
       </c>
-      <c r="AQ15" s="0" t="n">
+      <c r="AQ15">
+        <v>59.59</v>
+      </c>
+      <c r="AR15">
         <v>22.81</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>230440</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>2013</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>23044000</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16">
         <v>150</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16">
         <v>72</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16">
         <v>7442625</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16">
         <v>5818673</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="O16">
         <v>150</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16">
         <v>4926880</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16">
         <v>1524259</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16">
         <v>1749178</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="S16">
         <v>468735</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="T16">
         <v>125111576</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="U16">
         <v>62541234</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="V16">
         <v>1657</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="W16">
         <v>197330028</v>
       </c>
-      <c r="X16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="0" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AE16" s="0" t="n">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AE16">
         <v>2.21</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AF16">
         <v>2.11</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AG16">
         <v>111.44</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AH16">
         <v>23.48</v>
       </c>
-      <c r="AI16" s="0" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AI16">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="AJ16">
         <v>100</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AK16">
         <v>126.02</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AL16">
         <v>30.12</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AM16">
         <v>1.07</v>
       </c>
-      <c r="AN16" s="0" t="n">
-        <v>35.66</v>
-      </c>
-      <c r="AO16" s="0" t="n">
-        <v>35.87</v>
-      </c>
-      <c r="AP16" s="0" t="n">
+      <c r="AN16">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="AO16">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="AP16">
         <v>0.81</v>
       </c>
-      <c r="AQ16" s="0" t="n">
+      <c r="AQ16">
+        <v>66.2</v>
+      </c>
+      <c r="AR16">
         <v>23.5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>230440</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>2012</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>23044000</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>150</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17">
         <v>72</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17">
         <v>7292788</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17">
         <v>5697459</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17">
         <v>150</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17">
         <v>4755383</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17">
         <v>1449539</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17">
         <v>1744989</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17">
         <v>467723</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="T17">
         <v>113314865</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="U17">
         <v>54602093</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="V17">
         <v>1512</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="W17">
         <v>203324590</v>
       </c>
-      <c r="X17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="0" t="n">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
         <v>2.08</v>
       </c>
-      <c r="AE17" s="0" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AF17" s="0" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AE17">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AF17">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AG17">
         <v>115.36</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AH17">
         <v>27.73</v>
       </c>
-      <c r="AI17" s="0" t="n">
-        <v>33.88</v>
-      </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AI17">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="AJ17">
         <v>100</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AK17">
         <v>123.6</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AL17">
         <v>30.67</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AM17">
         <v>1.05</v>
       </c>
-      <c r="AN17" s="0" t="n">
-        <v>33.88</v>
-      </c>
-      <c r="AO17" s="0" t="n">
+      <c r="AN17">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="AO17">
         <v>36.56</v>
       </c>
-      <c r="AP17" s="0" t="n">
+      <c r="AP17">
         <v>0.79</v>
       </c>
-      <c r="AQ17" s="0" t="n">
+      <c r="AQ17">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="AR17">
         <v>23.93</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>230440</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>2011</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>23044000</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18">
         <v>150</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18">
         <v>72</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18">
         <v>7223312</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18">
         <v>5639741</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18">
         <v>150</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18">
         <v>5043360</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18">
         <v>1393356</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18">
         <v>1980320</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="S18">
         <v>451008</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T18">
         <v>92976125</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="U18">
         <v>73219006</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="V18">
         <v>1467</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="W18">
         <v>227059652</v>
       </c>
-      <c r="X18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="0" t="n">
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
         <v>1.91</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AE18">
         <v>1.9</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AF18">
         <v>2.06</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AG18">
         <v>131.07</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AH18">
         <v>27.01</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AI18">
         <v>34.54</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AJ18">
         <v>100</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AK18">
         <v>127.7</v>
       </c>
-      <c r="AL18" s="0" t="n">
-        <v>35.16</v>
-      </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AL18">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="AM18">
         <v>1.19</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AN18">
         <v>34.54</v>
       </c>
-      <c r="AO18" s="0" t="n">
+      <c r="AO18">
         <v>41.92</v>
       </c>
-      <c r="AP18" s="0" t="n">
+      <c r="AP18">
         <v>0.9</v>
       </c>
-      <c r="AQ18" s="0" t="n">
+      <c r="AQ18">
+        <v>69.819999999999993</v>
+      </c>
+      <c r="AR18">
         <v>27.42</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>230440</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>2010</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>23044000</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19">
         <v>149</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19">
         <v>71</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19">
         <v>7142291</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19">
         <v>5549156</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19">
         <v>149</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19">
         <v>4167471</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19">
         <v>1334068</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19">
         <v>1603985</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="S19">
         <v>432274</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="T19">
         <v>60777032</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="U19">
         <v>174555870</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="V19">
         <v>1789</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="W19">
         <v>248747134</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AD19">
         <v>1.76</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AE19">
         <v>1.73</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AF19">
         <v>1.82</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AG19">
         <v>105.35</v>
       </c>
-      <c r="AH19" s="0" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AH19">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="AI19">
         <v>46.38</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AJ19">
         <v>100</v>
       </c>
-      <c r="AK19" s="0" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AK19">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="AL19">
         <v>28.8</v>
       </c>
-      <c r="AM19" s="0" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AM19">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AN19">
         <v>46.38</v>
       </c>
-      <c r="AO19" s="0" t="n">
+      <c r="AO19">
         <v>34.43</v>
       </c>
-      <c r="AP19" s="0" t="n">
+      <c r="AP19">
         <v>0.88</v>
       </c>
-      <c r="AQ19" s="0" t="n">
+      <c r="AQ19">
+        <v>58.35</v>
+      </c>
+      <c r="AR19">
         <v>22.46</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>310620</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>2018</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>31062000</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20">
         <v>581</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20">
         <v>220</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20">
         <v>14742780</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20">
         <v>11450628</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20">
         <v>581</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20">
         <v>11309163</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20">
         <v>4258105</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="R20">
         <v>8045466</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="S20">
         <v>2843310</v>
       </c>
-      <c r="T20" s="0" t="n">
-        <v>291529178.23</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>357225929.98</v>
-      </c>
-      <c r="V20" s="0" t="n">
+      <c r="T20">
+        <v>291529178.23000002</v>
+      </c>
+      <c r="U20">
+        <v>357225929.98000002</v>
+      </c>
+      <c r="V20">
         <v>11545</v>
       </c>
-      <c r="W20" s="0" t="n">
-        <v>703356462.72</v>
-      </c>
-      <c r="X20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="0" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AE20" s="0" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AF20" s="0" t="n">
+      <c r="W20">
+        <v>703356462.72000003</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AE20">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="AF20">
         <v>4.12</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AG20">
         <v>123.02</v>
       </c>
-      <c r="AH20" s="0" t="n">
-        <v>40.02</v>
-      </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AH20">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="AI20">
         <v>55.2</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AJ20">
         <v>79.31</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AK20">
         <v>140.79</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AL20">
         <v>63.74</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AM20">
         <v>2.7</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AN20">
         <v>43.77</v>
       </c>
-      <c r="AO20" s="0" t="n">
+      <c r="AO20">
         <v>77.62</v>
       </c>
-      <c r="AP20" s="0" t="n">
+      <c r="AP20">
         <v>1.63</v>
       </c>
-      <c r="AQ20" s="0" t="n">
+      <c r="AQ20">
+        <v>76.709999999999994</v>
+      </c>
+      <c r="AR20">
         <v>54.57</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>310620</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>2017</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>31062000</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21">
         <v>579</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21">
         <v>214</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21">
         <v>14771686</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21">
         <v>11261004</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O21">
         <v>579</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21">
         <v>11279793</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="Q21">
         <v>4199477</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="R21">
         <v>7744721</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="S21">
         <v>2732503</v>
       </c>
-      <c r="T21" s="0" t="n">
-        <v>238528058.42</v>
-      </c>
-      <c r="U21" s="0" t="n">
+      <c r="T21">
+        <v>238528058.41999999</v>
+      </c>
+      <c r="U21">
         <v>252003157.06</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="V21">
         <v>11262</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="W21">
         <v>530539084.13</v>
       </c>
-      <c r="X21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="0" t="n">
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
         <v>3.67</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AE21">
         <v>3.97</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AF21">
         <v>3.24</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AG21">
         <v>109.79</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AH21">
         <v>37.78</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AI21">
         <v>54.64</v>
       </c>
-      <c r="AJ21" s="0" t="n">
-        <v>76.57</v>
-      </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AJ21">
+        <v>76.569999999999993</v>
+      </c>
+      <c r="AK21">
         <v>142.5</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AL21">
         <v>61.31</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AM21">
         <v>2.71</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AN21">
         <v>41.83</v>
       </c>
-      <c r="AO21" s="0" t="n">
+      <c r="AO21">
         <v>76</v>
       </c>
-      <c r="AP21" s="0" t="n">
+      <c r="AP21">
         <v>1.64</v>
       </c>
-      <c r="AQ21" s="0" t="n">
+      <c r="AQ21">
+        <v>76.36</v>
+      </c>
+      <c r="AR21">
         <v>52.43</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>310620</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>2016</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>31062000</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>579</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22">
         <v>209</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22">
         <v>14687099</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22">
         <v>11146063</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22">
         <v>579</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22">
         <v>11285665</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="Q22">
         <v>4150382</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="R22">
         <v>7718601</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="S22">
         <v>2663373</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="T22">
         <v>117386821.05</v>
       </c>
-      <c r="U22" s="0" t="n">
-        <v>207763652.74</v>
-      </c>
-      <c r="V22" s="0" t="n">
+      <c r="U22">
+        <v>207763652.74000001</v>
+      </c>
+      <c r="V22">
         <v>11327</v>
       </c>
-      <c r="W22" s="0" t="n">
-        <v>419411791.17</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="0" t="n">
+      <c r="W22">
+        <v>419411791.17000002</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
         <v>3.91</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AE22">
         <v>4.22</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AF22">
         <v>3.44</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AG22">
         <v>100.8</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AH22">
         <v>33.81</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AI22">
         <v>53.75</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AJ22">
         <v>74.61</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AK22">
         <v>143.12</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AL22">
         <v>61.48</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AM22">
         <v>2.84</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AN22">
         <v>40.1</v>
       </c>
-      <c r="AO22" s="0" t="n">
-        <v>76.49</v>
-      </c>
-      <c r="AP22" s="0" t="n">
+      <c r="AO22">
+        <v>76.489999999999995</v>
+      </c>
+      <c r="AP22">
         <v>1.73</v>
       </c>
-      <c r="AQ22" s="0" t="n">
+      <c r="AQ22">
+        <v>76.84</v>
+      </c>
+      <c r="AR22">
         <v>52.55</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>310620</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>2015</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>31062000</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23">
         <v>576</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23">
         <v>204</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23">
         <v>14580660</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23">
         <v>10992046</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23">
         <v>576</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23">
         <v>11223817</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="Q23">
         <v>4064375</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="R23">
         <v>7588618</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="S23">
         <v>2573490</v>
       </c>
-      <c r="T23" s="0" t="n">
-        <v>679102499.52</v>
-      </c>
-      <c r="U23" s="0" t="n">
+      <c r="T23">
+        <v>679102499.51999998</v>
+      </c>
+      <c r="U23">
         <v>229213073.34</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="V23">
         <v>11996</v>
       </c>
-      <c r="W23" s="0" t="n">
-        <v>946807421.92</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="0" t="n">
+      <c r="W23">
+        <v>946807421.91999996</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
         <v>3.26</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AE23">
         <v>3.53</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AF23">
         <v>2.85</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AG23">
         <v>93.21</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AH23">
         <v>28.99</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AI23">
         <v>53.72</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AJ23">
         <v>72.88</v>
       </c>
-      <c r="AK23" s="0" t="n">
-        <v>134.98</v>
-      </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AK23">
+        <v>134.97999999999999</v>
+      </c>
+      <c r="AL23">
         <v>60.89</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AM23">
         <v>3.05</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AN23">
         <v>39.15</v>
       </c>
-      <c r="AO23" s="0" t="n">
-        <v>76.24</v>
-      </c>
-      <c r="AP23" s="0" t="n">
+      <c r="AO23">
+        <v>76.239999999999995</v>
+      </c>
+      <c r="AP23">
         <v>1.87</v>
       </c>
-      <c r="AQ23" s="0" t="n">
+      <c r="AQ23">
+        <v>76.98</v>
+      </c>
+      <c r="AR23">
         <v>52.05</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>310620</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>2014</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>31062000</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24">
         <v>572</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24">
         <v>195</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24">
         <v>14542105</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24">
         <v>10853564</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24">
         <v>572</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P24">
         <v>12281518</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="Q24">
         <v>3979729</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="R24">
         <v>9041307</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="S24">
         <v>2511978</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="T24">
         <v>95710347</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="U24">
         <v>488266838</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24">
         <v>12544</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="W24">
         <v>657031369.38</v>
       </c>
-      <c r="X24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="0" t="n">
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
         <v>3.05</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AE24">
         <v>3.3</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AF24">
         <v>2.66</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AG24">
         <v>106.29</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AH24">
         <v>28.43</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AI24">
         <v>53.61</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AJ24">
         <v>71.48</v>
       </c>
-      <c r="AK24" s="0" t="n">
-        <v>141.45</v>
-      </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AK24">
+        <v>141.44999999999999</v>
+      </c>
+      <c r="AL24">
         <v>72.69</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AM24">
         <v>3.11</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AN24">
         <v>38.32</v>
       </c>
-      <c r="AO24" s="0" t="n">
+      <c r="AO24">
         <v>91.58</v>
       </c>
-      <c r="AP24" s="0" t="n">
+      <c r="AP24">
         <v>1.92</v>
       </c>
-      <c r="AQ24" s="0" t="n">
+      <c r="AQ24">
+        <v>84.45</v>
+      </c>
+      <c r="AR24">
         <v>62.17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>310620</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>2013</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>31062000</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25">
         <v>568</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25">
         <v>187</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25">
         <v>14428687</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25">
         <v>10638853</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25">
         <v>568</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25">
         <v>12179885</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="Q25">
         <v>3853319</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="R25">
         <v>8740156</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="S25">
         <v>2387629</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="T25">
         <v>86584039</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="U25">
         <v>509621496</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="V25">
         <v>11851</v>
       </c>
-      <c r="W25" s="0" t="n">
-        <v>649211452.59</v>
-      </c>
-      <c r="X25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="0" t="n">
+      <c r="W25">
+        <v>649211452.59000003</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
         <v>2.93</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AE25">
         <v>3.18</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AF25">
         <v>2.56</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AG25">
         <v>109.08</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AH25">
         <v>29.34</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AI25">
         <v>52.91</v>
       </c>
-      <c r="AJ25" s="0" t="n">
-        <v>67.43</v>
-      </c>
-      <c r="AK25" s="0" t="n">
-        <v>145.27</v>
-      </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AJ25">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="AK25">
+        <v>145.27000000000001</v>
+      </c>
+      <c r="AL25">
         <v>70.81</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AM25">
         <v>3.09</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AN25">
         <v>35.67</v>
       </c>
-      <c r="AO25" s="0" t="n">
+      <c r="AO25">
         <v>90.32</v>
       </c>
-      <c r="AP25" s="0" t="n">
+      <c r="AP25">
         <v>1.92</v>
       </c>
-      <c r="AQ25" s="0" t="n">
+      <c r="AQ25">
+        <v>84.41</v>
+      </c>
+      <c r="AR25">
         <v>60.57</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>310620</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>2012</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>31062000</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26">
         <v>571</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26">
         <v>171</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26">
         <v>13925376</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26">
         <v>9926157</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26">
         <v>571</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26">
         <v>11740023</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="Q26">
         <v>3730685</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26">
         <v>8149777</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="S26">
         <v>2235716</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="T26">
         <v>91844912</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="U26">
         <v>477541278</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="V26">
         <v>11603</v>
       </c>
-      <c r="W26" s="0" t="n">
-        <v>627042390.18</v>
-      </c>
-      <c r="AD26" s="0" t="n">
+      <c r="W26">
+        <v>627042390.17999995</v>
+      </c>
+      <c r="AD26">
         <v>2.8</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AE26">
         <v>3.07</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AF26">
         <v>2.37</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AG26">
         <v>102.61</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AH26">
         <v>29.29</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AI26">
         <v>51.85</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AJ26">
         <v>62.61</v>
       </c>
-      <c r="AK26" s="0" t="n">
-        <v>146.3</v>
-      </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AK26">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="AL26">
         <v>68.48</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AM26">
         <v>3.16</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AN26">
         <v>32.46</v>
       </c>
-      <c r="AO26" s="0" t="n">
+      <c r="AO26">
         <v>89.94</v>
       </c>
-      <c r="AP26" s="0" t="n">
+      <c r="AP26">
         <v>1.98</v>
       </c>
-      <c r="AQ26" s="0" t="n">
+      <c r="AQ26">
+        <v>84.31</v>
+      </c>
+      <c r="AR26">
         <v>58.52</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>310620</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>2011</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>31062000</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27">
         <v>571</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27">
         <v>169</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27">
         <v>13836905</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27">
         <v>9603560</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27">
         <v>571</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27">
         <v>11642371</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="Q27">
         <v>3597746</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="R27">
         <v>7846808</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="S27">
         <v>2131388</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="T27">
         <v>117606831</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="U27">
         <v>365468181</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V27">
         <v>11533</v>
       </c>
-      <c r="W27" s="0" t="n">
-        <v>551308648.71</v>
-      </c>
-      <c r="AD27" s="0" t="n">
+      <c r="W27">
+        <v>551308648.71000004</v>
+      </c>
+      <c r="AD27">
         <v>2.63</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AE27">
         <v>3.02</v>
       </c>
-      <c r="AF27" s="0" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AF27">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AG27">
         <v>111.07</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AH27">
         <v>28.58</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AI27">
         <v>50.39</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AJ27">
         <v>58.24</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AK27">
         <v>143.6</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AL27">
         <v>66.39</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AM27">
         <v>3.25</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AN27">
         <v>29.35</v>
       </c>
-      <c r="AO27" s="0" t="n">
+      <c r="AO27">
         <v>89.67</v>
       </c>
-      <c r="AP27" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ27" s="0" t="n">
+      <c r="AP27">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AQ27">
+        <v>84.14</v>
+      </c>
+      <c r="AR27">
         <v>56.71</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>310620</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>2010</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>31062000</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" t="s">
         <v>49</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28">
         <v>578</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28">
         <v>156</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28">
         <v>13792266</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28">
         <v>9177903</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28">
         <v>578</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28">
         <v>11559226</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="Q28">
         <v>3482857</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28">
         <v>7421889</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="S28">
         <v>1974689</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="T28">
         <v>185126079</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="U28">
         <v>453108302</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="V28">
         <v>11444</v>
       </c>
-      <c r="W28" s="0" t="n">
-        <v>693796561.01</v>
-      </c>
-      <c r="X28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="0" t="n">
+      <c r="W28">
+        <v>693796561.00999999</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
         <v>2.5</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AE28">
         <v>2.97</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AF28">
         <v>1.74</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AG28">
         <v>104.87</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AH28">
         <v>29.2</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AI28">
         <v>49.15</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AJ28">
         <v>52.58</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AK28">
         <v>133.9</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AL28">
         <v>63.15</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AM28">
         <v>3.35</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AN28">
         <v>25.84</v>
       </c>
-      <c r="AO28" s="0" t="n">
+      <c r="AO28">
         <v>88.39</v>
       </c>
-      <c r="AP28" s="0" t="n">
+      <c r="AP28">
         <v>2.14</v>
       </c>
-      <c r="AQ28" s="0" t="n">
+      <c r="AQ28">
+        <v>83.81</v>
+      </c>
+      <c r="AR28">
         <v>53.81</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>261160</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>2018</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>26116000</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29">
         <v>173</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29">
         <v>31</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29">
         <v>9170639</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29">
         <v>5433081</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29">
         <v>173</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="P29">
         <v>7389708</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="Q29">
         <v>1959827</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29">
         <v>1961882</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="S29">
         <v>386971</v>
       </c>
-      <c r="T29" s="0" t="n">
-        <v>360194588.35</v>
-      </c>
-      <c r="U29" s="0" t="n">
+      <c r="T29">
+        <v>360194588.35000002</v>
+      </c>
+      <c r="U29">
         <v>281053546.13</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="V29">
         <v>3471</v>
       </c>
-      <c r="W29" s="0" t="n">
-        <v>658987244.54</v>
-      </c>
-      <c r="AA29" s="0" t="n">
+      <c r="W29">
+        <v>658987244.53999996</v>
+      </c>
+      <c r="AA29">
         <v>562652.99</v>
       </c>
-      <c r="AB29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
         <v>2460159.54</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AD29">
         <v>3.75</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AE29">
         <v>3.81</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AF29">
         <v>3.56</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AG29">
         <v>103.51</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AH29">
         <v>37.03</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AI29">
         <v>31.54</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AJ29">
         <v>99.86</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AK29">
         <v>95.2</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AL29">
         <v>26</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AM29">
         <v>1.79</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AN29">
         <v>31.49</v>
       </c>
-      <c r="AO29" s="0" t="n">
-        <v>38.27</v>
-      </c>
-      <c r="AP29" s="0" t="n">
+      <c r="AO29">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="AP29">
         <v>1.49</v>
       </c>
-      <c r="AQ29" s="0" t="n">
+      <c r="AQ29">
+        <v>80.58</v>
+      </c>
+      <c r="AR29">
         <v>21.39</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>261160</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>2017</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>26116000</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30">
         <v>173</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30">
         <v>28</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30">
         <v>9148414</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="N30">
         <v>5351524</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="O30">
         <v>173</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="P30">
         <v>7239797</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="Q30">
         <v>1915708</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="R30">
         <v>1900585</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="S30">
         <v>377978</v>
       </c>
-      <c r="T30" s="0" t="n">
-        <v>410393568.8</v>
-      </c>
-      <c r="U30" s="0" t="n">
-        <v>207434686.08</v>
-      </c>
-      <c r="V30" s="0" t="n">
+      <c r="T30">
+        <v>410393568.80000001</v>
+      </c>
+      <c r="U30">
+        <v>207434686.08000001</v>
+      </c>
+      <c r="V30">
         <v>3456</v>
       </c>
-      <c r="W30" s="0" t="n">
-        <v>629018234.77</v>
-      </c>
-      <c r="X30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="0" t="n">
-        <v>22604481.85</v>
-      </c>
-      <c r="AB30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="0" t="n">
+      <c r="W30">
+        <v>629018234.76999998</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>22604481.850000001</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
         <v>24015188.93</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AD30">
         <v>3.49</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AE30">
         <v>3.5</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AF30">
         <v>3.47</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AG30">
         <v>103.79</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AH30">
         <v>37.07</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AI30">
         <v>31.06</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AJ30">
         <v>99.84</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AK30">
         <v>95.45</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AL30">
         <v>25.46</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AM30">
         <v>1.82</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AN30">
         <v>31.01</v>
       </c>
-      <c r="AO30" s="0" t="n">
+      <c r="AO30">
         <v>37.85</v>
       </c>
-      <c r="AP30" s="0" t="n">
+      <c r="AP30">
         <v>1.52</v>
       </c>
-      <c r="AQ30" s="0" t="n">
+      <c r="AQ30">
+        <v>79.14</v>
+      </c>
+      <c r="AR30">
         <v>20.78</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>261160</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>2016</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>26116000</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31">
         <v>173</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31">
         <v>28</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31">
         <v>9087466</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="N31">
         <v>5311992</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="O31">
         <v>173</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31">
         <v>7060398</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="Q31">
         <v>1881116</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="R31">
         <v>1812816</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="S31">
         <v>364292</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="T31">
         <v>224343727.47</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="U31">
         <v>203676031.06</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="V31">
         <v>3457</v>
       </c>
-      <c r="W31" s="0" t="n">
-        <v>443103774.48</v>
-      </c>
-      <c r="AA31" s="0" t="n">
-        <v>52634330.13</v>
-      </c>
-      <c r="AC31" s="0" t="n">
-        <v>52634330.21</v>
-      </c>
-      <c r="AD31" s="0" t="n">
+      <c r="W31">
+        <v>443103774.48000002</v>
+      </c>
+      <c r="AA31">
+        <v>52634330.130000003</v>
+      </c>
+      <c r="AC31">
+        <v>52634330.210000001</v>
+      </c>
+      <c r="AD31">
         <v>3.51</v>
       </c>
-      <c r="AE31" s="0" t="n">
+      <c r="AE31">
         <v>3.53</v>
       </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AF31">
         <v>3.45</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AG31">
         <v>104.36</v>
       </c>
-      <c r="AH31" s="0" t="n">
+      <c r="AH31">
         <v>37.24</v>
       </c>
-      <c r="AI31" s="0" t="n">
+      <c r="AI31">
         <v>30.4</v>
       </c>
-      <c r="AJ31" s="0" t="n">
+      <c r="AJ31">
         <v>99.45</v>
       </c>
-      <c r="AK31" s="0" t="n">
+      <c r="AK31">
         <v>92.01</v>
       </c>
-      <c r="AL31" s="0" t="n">
+      <c r="AL31">
         <v>24.63</v>
       </c>
-      <c r="AM31" s="0" t="n">
+      <c r="AM31">
         <v>1.84</v>
       </c>
-      <c r="AN31" s="0" t="n">
+      <c r="AN31">
         <v>30.23</v>
       </c>
-      <c r="AO31" s="0" t="n">
-        <v>36.62</v>
-      </c>
-      <c r="AP31" s="0" t="n">
+      <c r="AO31">
+        <v>36.619999999999997</v>
+      </c>
+      <c r="AP31">
         <v>1.55</v>
       </c>
-      <c r="AQ31" s="0" t="n">
+      <c r="AQ31">
+        <v>77.69</v>
+      </c>
+      <c r="AR31">
         <v>19.95</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>261160</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>2015</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>26116000</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" t="s">
         <v>48</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32">
         <v>173</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="L32">
         <v>27</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="M32">
         <v>9024358</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="N32">
         <v>5249867</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="O32">
         <v>173</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="P32">
         <v>6880739</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="Q32">
         <v>1882052</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="R32">
         <v>1560323</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="S32">
         <v>347139</v>
       </c>
-      <c r="T32" s="0" t="n">
-        <v>266949183.07</v>
-      </c>
-      <c r="U32" s="0" t="n">
+      <c r="T32">
+        <v>266949183.06999999</v>
+      </c>
+      <c r="U32">
         <v>239005301.62</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="V32">
         <v>3470</v>
       </c>
-      <c r="W32" s="0" t="n">
-        <v>519099500.74</v>
-      </c>
-      <c r="AA32" s="0" t="n">
+      <c r="W32">
+        <v>519099500.74000001</v>
+      </c>
+      <c r="AA32">
         <v>27820488.91</v>
       </c>
-      <c r="AB32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="0" t="n">
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
         <v>27820488.91</v>
       </c>
-      <c r="AD32" s="0" t="n">
+      <c r="AD32">
         <v>3.16</v>
       </c>
-      <c r="AE32" s="0" t="n">
+      <c r="AE32">
         <v>3.15</v>
       </c>
-      <c r="AF32" s="0" t="n">
+      <c r="AF32">
         <v>3.22</v>
       </c>
-      <c r="AG32" s="0" t="n">
+      <c r="AG32">
         <v>102.51</v>
       </c>
-      <c r="AH32" s="0" t="n">
+      <c r="AH32">
         <v>34.65</v>
       </c>
-      <c r="AI32" s="0" t="n">
+      <c r="AI32">
         <v>27.35</v>
       </c>
-      <c r="AJ32" s="0" t="n">
+      <c r="AJ32">
         <v>99.4</v>
       </c>
-      <c r="AK32" s="0" t="n">
+      <c r="AK32">
         <v>100.55</v>
       </c>
-      <c r="AL32" s="0" t="n">
+      <c r="AL32">
         <v>21.34</v>
       </c>
-      <c r="AM32" s="0" t="n">
+      <c r="AM32">
         <v>1.84</v>
       </c>
-      <c r="AN32" s="0" t="n">
+      <c r="AN32">
         <v>27.19</v>
       </c>
-      <c r="AO32" s="0" t="n">
+      <c r="AO32">
         <v>31.79</v>
       </c>
-      <c r="AP32" s="0" t="n">
+      <c r="AP32">
         <v>1.56</v>
       </c>
-      <c r="AQ32" s="0" t="n">
+      <c r="AQ32">
+        <v>76.25</v>
+      </c>
+      <c r="AR32">
         <v>17.29</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>261160</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>2014</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>26116000</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" t="s">
         <v>48</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33">
         <v>173</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="L33">
         <v>26</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="M33">
         <v>8959035</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="N33">
         <v>5178853</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="O33">
         <v>173</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="P33">
         <v>6683754</v>
       </c>
-      <c r="Q33" s="0" t="n">
+      <c r="Q33">
         <v>1830768</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="R33">
         <v>1474300</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="S33">
         <v>330829</v>
       </c>
-      <c r="T33" s="0" t="n">
-        <v>599825659.41</v>
-      </c>
-      <c r="U33" s="0" t="n">
-        <v>81235702.63</v>
-      </c>
-      <c r="V33" s="0" t="n">
+      <c r="T33">
+        <v>599825659.40999997</v>
+      </c>
+      <c r="U33">
+        <v>81235702.629999995</v>
+      </c>
+      <c r="V33">
         <v>3379</v>
       </c>
-      <c r="W33" s="0" t="n">
-        <v>698411973.64</v>
-      </c>
-      <c r="AA33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="0" t="n">
+      <c r="W33">
+        <v>698411973.63999999</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
         <v>2.88</v>
       </c>
-      <c r="AE33" s="0" t="n">
+      <c r="AE33">
         <v>2.87</v>
       </c>
-      <c r="AF33" s="0" t="n">
+      <c r="AF33">
         <v>2.92</v>
       </c>
-      <c r="AG33" s="0" t="n">
+      <c r="AG33">
         <v>103.45</v>
       </c>
-      <c r="AH33" s="0" t="n">
+      <c r="AH33">
         <v>37.31</v>
       </c>
-      <c r="AI33" s="0" t="n">
+      <c r="AI33">
         <v>26.65</v>
       </c>
-      <c r="AJ33" s="0" t="n">
+      <c r="AJ33">
         <v>99.08</v>
       </c>
-      <c r="AK33" s="0" t="n">
+      <c r="AK33">
         <v>106.2</v>
       </c>
-      <c r="AL33" s="0" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="AM33" s="0" t="n">
+      <c r="AL33">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="AM33">
         <v>1.91</v>
       </c>
-      <c r="AN33" s="0" t="n">
+      <c r="AN33">
         <v>26.41</v>
       </c>
-      <c r="AO33" s="0" t="n">
+      <c r="AO33">
         <v>30.38</v>
       </c>
-      <c r="AP33" s="0" t="n">
+      <c r="AP33">
         <v>1.62</v>
       </c>
-      <c r="AQ33" s="0" t="n">
+      <c r="AQ33">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AR33">
         <v>16.46</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>261160</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>2013</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>26116000</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" t="s">
         <v>47</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34">
         <v>173</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34">
         <v>25</v>
       </c>
-      <c r="M34" s="0" t="n">
+      <c r="M34">
         <v>8892051</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="N34">
         <v>5111441</v>
       </c>
-      <c r="O34" s="0" t="n">
+      <c r="O34">
         <v>173</v>
       </c>
-      <c r="P34" s="0" t="n">
+      <c r="P34">
         <v>6307651</v>
       </c>
-      <c r="Q34" s="0" t="n">
+      <c r="Q34">
         <v>1740155</v>
       </c>
-      <c r="R34" s="0" t="n">
+      <c r="R34">
         <v>1369619</v>
       </c>
-      <c r="S34" s="0" t="n">
+      <c r="S34">
         <v>311568</v>
       </c>
-      <c r="T34" s="0" t="n">
-        <v>616538711.52</v>
-      </c>
-      <c r="U34" s="0" t="n">
-        <v>76872993.79</v>
-      </c>
-      <c r="V34" s="0" t="n">
+      <c r="T34">
+        <v>616538711.51999998</v>
+      </c>
+      <c r="U34">
+        <v>76872993.790000007</v>
+      </c>
+      <c r="V34">
         <v>3457</v>
       </c>
-      <c r="W34" s="0" t="n">
+      <c r="W34">
         <v>742866220.38</v>
       </c>
-      <c r="AD34" s="0" t="n">
+      <c r="AD34">
         <v>2.77</v>
       </c>
-      <c r="AE34" s="0" t="n">
+      <c r="AE34">
         <v>2.72</v>
       </c>
-      <c r="AF34" s="0" t="n">
+      <c r="AF34">
         <v>3</v>
       </c>
-      <c r="AG34" s="0" t="n">
+      <c r="AG34">
         <v>102.42</v>
       </c>
-      <c r="AH34" s="0" t="n">
+      <c r="AH34">
         <v>40.51</v>
       </c>
-      <c r="AI34" s="0" t="n">
+      <c r="AI34">
         <v>26.75</v>
       </c>
-      <c r="AJ34" s="0" t="n">
+      <c r="AJ34">
         <v>98.95</v>
       </c>
-      <c r="AK34" s="0" t="n">
+      <c r="AK34">
         <v>104.99</v>
       </c>
-      <c r="AL34" s="0" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="AM34" s="0" t="n">
+      <c r="AL34">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="AM34">
         <v>2.04</v>
       </c>
-      <c r="AN34" s="0" t="n">
+      <c r="AN34">
         <v>26.47</v>
       </c>
-      <c r="AO34" s="0" t="n">
+      <c r="AO34">
         <v>28.51</v>
       </c>
-      <c r="AP34" s="0" t="n">
+      <c r="AP34">
         <v>1.73</v>
       </c>
-      <c r="AQ34" s="0" t="n">
+      <c r="AQ34">
+        <v>70.94</v>
+      </c>
+      <c r="AR34">
         <v>15.4</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>261160</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>2012</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>26116000</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" t="s">
         <v>49</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35">
         <v>173</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="L35">
         <v>23</v>
       </c>
-      <c r="M35" s="0" t="n">
+      <c r="M35">
         <v>8623866</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="N35">
         <v>4809510</v>
       </c>
-      <c r="O35" s="0" t="n">
+      <c r="O35">
         <v>173</v>
       </c>
-      <c r="P35" s="0" t="n">
+      <c r="P35">
         <v>6097627</v>
       </c>
-      <c r="Q35" s="0" t="n">
+      <c r="Q35">
         <v>1688306</v>
       </c>
-      <c r="R35" s="0" t="n">
+      <c r="R35">
         <v>1293117</v>
       </c>
-      <c r="S35" s="0" t="n">
+      <c r="S35">
         <v>295247</v>
       </c>
-      <c r="T35" s="0" t="n">
+      <c r="T35">
         <v>316811112.81</v>
       </c>
-      <c r="U35" s="0" t="n">
-        <v>55339433.02</v>
-      </c>
-      <c r="V35" s="0" t="n">
+      <c r="U35">
+        <v>55339433.020000003</v>
+      </c>
+      <c r="V35">
         <v>3531</v>
       </c>
-      <c r="W35" s="0" t="n">
-        <v>403519027.53</v>
-      </c>
-      <c r="AD35" s="0" t="n">
+      <c r="W35">
+        <v>403519027.52999997</v>
+      </c>
+      <c r="AD35">
         <v>2.68</v>
       </c>
-      <c r="AE35" s="0" t="n">
+      <c r="AE35">
         <v>2.63</v>
       </c>
-      <c r="AF35" s="0" t="n">
+      <c r="AF35">
         <v>2.91</v>
       </c>
-      <c r="AG35" s="0" t="n">
+      <c r="AG35">
         <v>98.84</v>
       </c>
-      <c r="AH35" s="0" t="n">
+      <c r="AH35">
         <v>43.36</v>
       </c>
-      <c r="AI35" s="0" t="n">
+      <c r="AI35">
         <v>26.02</v>
       </c>
-      <c r="AJ35" s="0" t="n">
+      <c r="AJ35">
         <v>98.47</v>
       </c>
-      <c r="AK35" s="0" t="n">
+      <c r="AK35">
         <v>109</v>
       </c>
-      <c r="AL35" s="0" t="n">
-        <v>18.51</v>
-      </c>
-      <c r="AM35" s="0" t="n">
+      <c r="AL35">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="AM35">
         <v>2.15</v>
       </c>
-      <c r="AN35" s="0" t="n">
+      <c r="AN35">
         <v>25.62</v>
       </c>
-      <c r="AO35" s="0" t="n">
+      <c r="AO35">
         <v>28.44</v>
       </c>
-      <c r="AP35" s="0" t="n">
+      <c r="AP35">
         <v>1.83</v>
       </c>
-      <c r="AQ35" s="0" t="n">
+      <c r="AQ35">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="AR35">
         <v>14.99</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>261160</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>2011</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>26116000</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="I36" t="s">
         <v>48</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36">
         <v>173</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="L36">
         <v>23</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="M36">
         <v>8559808</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="N36">
         <v>4773297</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="O36">
         <v>173</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="P36">
         <v>5868274</v>
       </c>
-      <c r="Q36" s="0" t="n">
+      <c r="Q36">
         <v>1630275</v>
       </c>
-      <c r="R36" s="0" t="n">
+      <c r="R36">
         <v>1233934</v>
       </c>
-      <c r="S36" s="0" t="n">
+      <c r="S36">
         <v>283300</v>
       </c>
-      <c r="T36" s="0" t="n">
-        <v>321525105.61</v>
-      </c>
-      <c r="U36" s="0" t="n">
-        <v>26146807.8</v>
-      </c>
-      <c r="V36" s="0" t="n">
+      <c r="T36">
+        <v>321525105.61000001</v>
+      </c>
+      <c r="U36">
+        <v>26146807.800000001</v>
+      </c>
+      <c r="V36">
         <v>3619</v>
       </c>
-      <c r="W36" s="0" t="n">
-        <v>363574778.52</v>
-      </c>
-      <c r="AD36" s="0" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AE36" s="0" t="n">
+      <c r="W36">
+        <v>363574778.51999998</v>
+      </c>
+      <c r="AD36">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AE36">
         <v>2.36</v>
       </c>
-      <c r="AF36" s="0" t="n">
+      <c r="AF36">
         <v>2.86</v>
       </c>
-      <c r="AG36" s="0" t="n">
+      <c r="AG36">
         <v>98.86</v>
       </c>
-      <c r="AH36" s="0" t="n">
+      <c r="AH36">
         <v>57.09</v>
       </c>
-      <c r="AI36" s="0" t="n">
+      <c r="AI36">
         <v>26.7</v>
       </c>
-      <c r="AJ36" s="0" t="n">
+      <c r="AJ36">
         <v>99.11</v>
       </c>
-      <c r="AK36" s="0" t="n">
+      <c r="AK36">
         <v>107.2</v>
       </c>
-      <c r="AL36" s="0" t="n">
+      <c r="AL36">
         <v>17.87</v>
       </c>
-      <c r="AM36" s="0" t="n">
+      <c r="AM36">
         <v>2.21</v>
       </c>
-      <c r="AN36" s="0" t="n">
+      <c r="AN36">
         <v>26.47</v>
       </c>
-      <c r="AO36" s="0" t="n">
+      <c r="AO36">
         <v>27.46</v>
       </c>
-      <c r="AP36" s="0" t="n">
+      <c r="AP36">
         <v>1.88</v>
       </c>
-      <c r="AQ36" s="0" t="n">
+      <c r="AQ36">
+        <v>68.56</v>
+      </c>
+      <c r="AR36">
         <v>14.42</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>261160</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>2010</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>26116000</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" t="s">
         <v>47</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" t="s">
         <v>48</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" t="s">
         <v>49</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37">
         <v>173</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="L37">
         <v>21</v>
       </c>
-      <c r="M37" s="0" t="n">
+      <c r="M37">
         <v>8493489</v>
       </c>
-      <c r="N37" s="0" t="n">
+      <c r="N37">
         <v>4696213</v>
       </c>
-      <c r="O37" s="0" t="n">
+      <c r="O37">
         <v>173</v>
       </c>
-      <c r="P37" s="0" t="n">
+      <c r="P37">
         <v>5686614</v>
       </c>
-      <c r="Q37" s="0" t="n">
+      <c r="Q37">
         <v>1576227</v>
       </c>
-      <c r="R37" s="0" t="n">
+      <c r="R37">
         <v>1199741</v>
       </c>
-      <c r="S37" s="0" t="n">
+      <c r="S37">
         <v>275572</v>
       </c>
-      <c r="T37" s="0" t="n">
-        <v>481231858.49</v>
-      </c>
-      <c r="U37" s="0" t="n">
-        <v>64356105.1</v>
-      </c>
-      <c r="V37" s="0" t="n">
+      <c r="T37">
+        <v>481231858.49000001</v>
+      </c>
+      <c r="U37">
+        <v>64356105.100000001</v>
+      </c>
+      <c r="V37">
         <v>3467</v>
       </c>
-      <c r="W37" s="0" t="n">
-        <v>579649212.64</v>
-      </c>
-      <c r="AD37" s="0" t="n">
+      <c r="W37">
+        <v>579649212.63999999</v>
+      </c>
+      <c r="AD37">
         <v>2.33</v>
       </c>
-      <c r="AE37" s="0" t="n">
+      <c r="AE37">
         <v>2.29</v>
       </c>
-      <c r="AF37" s="0" t="n">
+      <c r="AF37">
         <v>2.52</v>
       </c>
-      <c r="AG37" s="0" t="n">
+      <c r="AG37">
         <v>97.95</v>
       </c>
-      <c r="AH37" s="0" t="n">
+      <c r="AH37">
         <v>57.03</v>
       </c>
-      <c r="AI37" s="0" t="n">
+      <c r="AI37">
         <v>27.69</v>
       </c>
-      <c r="AJ37" s="0" t="n">
+      <c r="AJ37">
         <v>99.92</v>
       </c>
-      <c r="AK37" s="0" t="n">
+      <c r="AK37">
         <v>96.1</v>
       </c>
-      <c r="AL37" s="0" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="AM37" s="0" t="n">
+      <c r="AL37">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="AM37">
         <v>2.36</v>
       </c>
-      <c r="AN37" s="0" t="n">
+      <c r="AN37">
         <v>27.67</v>
       </c>
-      <c r="AO37" s="0" t="n">
+      <c r="AO37">
         <v>27.04</v>
       </c>
-      <c r="AP37" s="0" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AQ37" s="0" t="n">
+      <c r="AP37">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AQ37">
+        <v>66.95</v>
+      </c>
+      <c r="AR37">
         <v>14.13</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>410690</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>2018</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>41069000</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="I38" t="s">
         <v>48</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="J38" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38">
         <v>345</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="L38">
         <v>189</v>
       </c>
-      <c r="M38" s="0" t="n">
+      <c r="M38">
         <v>10556558</v>
       </c>
-      <c r="N38" s="0" t="n">
+      <c r="N38">
         <v>9578464</v>
       </c>
-      <c r="O38" s="0" t="n">
+      <c r="O38">
         <v>345</v>
       </c>
-      <c r="P38" s="0" t="n">
+      <c r="P38">
         <v>9965721</v>
       </c>
-      <c r="Q38" s="0" t="n">
+      <c r="Q38">
         <v>3137756</v>
       </c>
-      <c r="R38" s="0" t="n">
+      <c r="R38">
         <v>7652386</v>
       </c>
-      <c r="S38" s="0" t="n">
+      <c r="S38">
         <v>2141048</v>
       </c>
-      <c r="T38" s="0" t="n">
-        <v>449191812.32</v>
-      </c>
-      <c r="U38" s="0" t="n">
-        <v>418226961.53</v>
-      </c>
-      <c r="V38" s="0" t="n">
+      <c r="T38">
+        <v>449191812.31999999</v>
+      </c>
+      <c r="U38">
+        <v>418226961.52999997</v>
+      </c>
+      <c r="V38">
         <v>7018</v>
       </c>
-      <c r="W38" s="0" t="n">
+      <c r="W38">
         <v>1030072032.23</v>
       </c>
-      <c r="AD38" s="0" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="AE38" s="0" t="n">
+      <c r="AD38">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="AE38">
         <v>5.3</v>
       </c>
-      <c r="AF38" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AG38" s="0" t="n">
+      <c r="AF38">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AG38">
         <v>117.49</v>
       </c>
-      <c r="AH38" s="0" t="n">
+      <c r="AH38">
         <v>32.32</v>
       </c>
-      <c r="AI38" s="0" t="n">
-        <v>73.6</v>
-      </c>
-      <c r="AJ38" s="0" t="n">
+      <c r="AI38">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AJ38">
         <v>100</v>
       </c>
-      <c r="AK38" s="0" t="n">
+      <c r="AK38">
         <v>136.01</v>
       </c>
-      <c r="AL38" s="0" t="n">
+      <c r="AL38">
         <v>82.87</v>
       </c>
-      <c r="AM38" s="0" t="n">
+      <c r="AM38">
         <v>2.27</v>
       </c>
-      <c r="AN38" s="0" t="n">
-        <v>73.6</v>
-      </c>
-      <c r="AO38" s="0" t="n">
+      <c r="AN38">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AO38">
         <v>88.51</v>
       </c>
-      <c r="AP38" s="0" t="n">
+      <c r="AP38">
         <v>1.36</v>
       </c>
-      <c r="AQ38" s="0" t="n">
-        <v>72.49</v>
+      <c r="AQ38">
+        <v>94.4</v>
+      </c>
+      <c r="AR38">
+        <v>72.489999999999995</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>410690</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>2017</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>41069000</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="I39" t="s">
         <v>48</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" t="s">
         <v>49</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39">
         <v>345</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="L39">
         <v>185</v>
       </c>
-      <c r="M39" s="0" t="n">
+      <c r="M39">
         <v>10526234</v>
       </c>
-      <c r="N39" s="0" t="n">
+      <c r="N39">
         <v>9491924</v>
       </c>
-      <c r="O39" s="0" t="n">
+      <c r="O39">
         <v>345</v>
       </c>
-      <c r="P39" s="0" t="n">
+      <c r="P39">
         <v>9869734</v>
       </c>
-      <c r="Q39" s="0" t="n">
+      <c r="Q39">
         <v>3087156</v>
       </c>
-      <c r="R39" s="0" t="n">
+      <c r="R39">
         <v>7414417</v>
       </c>
-      <c r="S39" s="0" t="n">
+      <c r="S39">
         <v>2040291</v>
       </c>
-      <c r="T39" s="0" t="n">
-        <v>351585835.27</v>
-      </c>
-      <c r="U39" s="0" t="n">
-        <v>432045062.23</v>
-      </c>
-      <c r="V39" s="0" t="n">
+      <c r="T39">
+        <v>351585835.26999998</v>
+      </c>
+      <c r="U39">
+        <v>432045062.23000002</v>
+      </c>
+      <c r="V39">
         <v>7114</v>
       </c>
-      <c r="W39" s="0" t="n">
+      <c r="W39">
         <v>880539372.62</v>
       </c>
-      <c r="AD39" s="0" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AE39" s="0" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="AF39" s="0" t="n">
+      <c r="AD39">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AE39">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AF39">
         <v>3.67</v>
       </c>
-      <c r="AG39" s="0" t="n">
+      <c r="AG39">
         <v>111.51</v>
       </c>
-      <c r="AH39" s="0" t="n">
+      <c r="AH39">
         <v>27.24</v>
       </c>
-      <c r="AI39" s="0" t="n">
+      <c r="AI39">
         <v>71.8</v>
       </c>
-      <c r="AJ39" s="0" t="n">
+      <c r="AJ39">
         <v>100</v>
       </c>
-      <c r="AK39" s="0" t="n">
-        <v>138.17</v>
-      </c>
-      <c r="AL39" s="0" t="n">
+      <c r="AK39">
+        <v>138.16999999999999</v>
+      </c>
+      <c r="AL39">
         <v>80.87</v>
       </c>
-      <c r="AM39" s="0" t="n">
+      <c r="AM39">
         <v>2.37</v>
       </c>
-      <c r="AN39" s="0" t="n">
+      <c r="AN39">
         <v>71.8</v>
       </c>
-      <c r="AO39" s="0" t="n">
+      <c r="AO39">
         <v>86.78</v>
       </c>
-      <c r="AP39" s="0" t="n">
+      <c r="AP39">
         <v>1.43</v>
       </c>
-      <c r="AQ39" s="0" t="n">
+      <c r="AQ39">
+        <v>93.76</v>
+      </c>
+      <c r="AR39">
         <v>70.44</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>410690</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>2016</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>41069000</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" t="s">
         <v>47</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="I40" t="s">
         <v>48</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="J40" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40">
         <v>345</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="L40">
         <v>180</v>
       </c>
-      <c r="M40" s="0" t="n">
+      <c r="M40">
         <v>10454276</v>
       </c>
-      <c r="N40" s="0" t="n">
+      <c r="N40">
         <v>9378219</v>
       </c>
-      <c r="O40" s="0" t="n">
+      <c r="O40">
         <v>345</v>
       </c>
-      <c r="P40" s="0" t="n">
+      <c r="P40">
         <v>9755014</v>
       </c>
-      <c r="Q40" s="0" t="n">
+      <c r="Q40">
         <v>3025776</v>
       </c>
-      <c r="R40" s="0" t="n">
+      <c r="R40">
         <v>7176796</v>
       </c>
-      <c r="S40" s="0" t="n">
+      <c r="S40">
         <v>1953483</v>
       </c>
-      <c r="T40" s="0" t="n">
-        <v>261917592.48</v>
-      </c>
-      <c r="U40" s="0" t="n">
-        <v>431274698.57</v>
-      </c>
-      <c r="V40" s="0" t="n">
+      <c r="T40">
+        <v>261917592.47999999</v>
+      </c>
+      <c r="U40">
+        <v>431274698.56999999</v>
+      </c>
+      <c r="V40">
         <v>7344</v>
       </c>
-      <c r="W40" s="0" t="n">
-        <v>742401583.17</v>
-      </c>
-      <c r="AD40" s="0" t="n">
+      <c r="W40">
+        <v>742401583.16999996</v>
+      </c>
+      <c r="AD40">
         <v>3.6</v>
       </c>
-      <c r="AE40" s="0" t="n">
+      <c r="AE40">
         <v>3.94</v>
       </c>
-      <c r="AF40" s="0" t="n">
+      <c r="AF40">
         <v>3.11</v>
       </c>
-      <c r="AG40" s="0" t="n">
+      <c r="AG40">
         <v>111.47</v>
       </c>
-      <c r="AH40" s="0" t="n">
+      <c r="AH40">
         <v>20.53</v>
       </c>
-      <c r="AI40" s="0" t="n">
+      <c r="AI40">
         <v>69.98</v>
       </c>
-      <c r="AJ40" s="0" t="n">
+      <c r="AJ40">
         <v>100</v>
       </c>
-      <c r="AK40" s="0" t="n">
+      <c r="AK40">
         <v>136.37</v>
       </c>
-      <c r="AL40" s="0" t="n">
+      <c r="AL40">
         <v>79.08</v>
       </c>
-      <c r="AM40" s="0" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AN40" s="0" t="n">
+      <c r="AM40">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AN40">
         <v>69.98</v>
       </c>
-      <c r="AO40" s="0" t="n">
+      <c r="AO40">
         <v>85.21</v>
       </c>
-      <c r="AP40" s="0" t="n">
+      <c r="AP40">
         <v>1.51</v>
       </c>
-      <c r="AQ40" s="0" t="n">
-        <v>68.65</v>
+      <c r="AQ40">
+        <v>93.31</v>
+      </c>
+      <c r="AR40">
+        <v>68.650000000000006</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>410690</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>2015</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>41069000</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="I41" t="s">
         <v>48</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="J41" t="s">
         <v>66</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="K41">
         <v>345</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="L41">
         <v>174</v>
       </c>
-      <c r="M41" s="0" t="n">
+      <c r="M41">
         <v>10378985</v>
       </c>
-      <c r="N41" s="0" t="n">
+      <c r="N41">
         <v>9224687</v>
       </c>
-      <c r="O41" s="0" t="n">
+      <c r="O41">
         <v>345</v>
       </c>
-      <c r="P41" s="0" t="n">
+      <c r="P41">
         <v>9632394</v>
       </c>
-      <c r="Q41" s="0" t="n">
+      <c r="Q41">
         <v>2979359</v>
       </c>
-      <c r="R41" s="0" t="n">
+      <c r="R41">
         <v>6879380</v>
       </c>
-      <c r="S41" s="0" t="n">
+      <c r="S41">
         <v>1859532</v>
       </c>
-      <c r="T41" s="0" t="n">
-        <v>300419125.39</v>
-      </c>
-      <c r="U41" s="0" t="n">
-        <v>446814881.32</v>
-      </c>
-      <c r="V41" s="0" t="n">
+      <c r="T41">
+        <v>300419125.38999999</v>
+      </c>
+      <c r="U41">
+        <v>446814881.31999999</v>
+      </c>
+      <c r="V41">
         <v>7473</v>
       </c>
-      <c r="W41" s="0" t="n">
-        <v>795089060.18</v>
-      </c>
-      <c r="AD41" s="0" t="n">
+      <c r="W41">
+        <v>795089060.17999995</v>
+      </c>
+      <c r="AD41">
         <v>3.08</v>
       </c>
-      <c r="AE41" s="0" t="n">
+      <c r="AE41">
         <v>3.36</v>
       </c>
-      <c r="AF41" s="0" t="n">
+      <c r="AF41">
         <v>2.66</v>
       </c>
-      <c r="AG41" s="0" t="n">
+      <c r="AG41">
         <v>106.71</v>
       </c>
-      <c r="AH41" s="0" t="n">
+      <c r="AH41">
         <v>19.47</v>
       </c>
-      <c r="AI41" s="0" t="n">
-        <v>68.26</v>
-      </c>
-      <c r="AJ41" s="0" t="n">
+      <c r="AI41">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="AJ41">
         <v>99.84</v>
       </c>
-      <c r="AK41" s="0" t="n">
+      <c r="AK41">
         <v>136.49</v>
       </c>
-      <c r="AL41" s="0" t="n">
+      <c r="AL41">
         <v>76.7</v>
       </c>
-      <c r="AM41" s="0" t="n">
+      <c r="AM41">
         <v>2.52</v>
       </c>
-      <c r="AN41" s="0" t="n">
+      <c r="AN41">
         <v>68.14</v>
       </c>
-      <c r="AO41" s="0" t="n">
+      <c r="AO41">
         <v>83.18</v>
       </c>
-      <c r="AP41" s="0" t="n">
+      <c r="AP41">
         <v>1.56</v>
       </c>
-      <c r="AQ41" s="0" t="n">
+      <c r="AQ41">
+        <v>92.81</v>
+      </c>
+      <c r="AR41">
         <v>66.28</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>410690</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>2014</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>41069000</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" t="s">
         <v>47</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" t="s">
         <v>48</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="J42" t="s">
         <v>66</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42">
         <v>345</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="L42">
         <v>174</v>
       </c>
-      <c r="M42" s="0" t="n">
+      <c r="M42">
         <v>10302165</v>
       </c>
-      <c r="N42" s="0" t="n">
+      <c r="N42">
         <v>9149359</v>
       </c>
-      <c r="O42" s="0" t="n">
+      <c r="O42">
         <v>345</v>
       </c>
-      <c r="P42" s="0" t="n">
+      <c r="P42">
         <v>9476980</v>
       </c>
-      <c r="Q42" s="0" t="n">
+      <c r="Q42">
         <v>2909397</v>
       </c>
-      <c r="R42" s="0" t="n">
+      <c r="R42">
         <v>6287464</v>
       </c>
-      <c r="S42" s="0" t="n">
+      <c r="S42">
         <v>1759422</v>
       </c>
-      <c r="T42" s="0" t="n">
-        <v>408562068.1</v>
-      </c>
-      <c r="U42" s="0" t="n">
-        <v>467989612.2</v>
-      </c>
-      <c r="V42" s="0" t="n">
+      <c r="T42">
+        <v>408562068.10000002</v>
+      </c>
+      <c r="U42">
+        <v>467989612.19999999</v>
+      </c>
+      <c r="V42">
         <v>7385</v>
       </c>
-      <c r="W42" s="0" t="n">
+      <c r="W42">
         <v>954047863.25</v>
       </c>
-      <c r="X42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="0" t="n">
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
         <v>2.76</v>
       </c>
-      <c r="AE42" s="0" t="n">
+      <c r="AE42">
         <v>3.01</v>
       </c>
-      <c r="AF42" s="0" t="n">
+      <c r="AF42">
         <v>2.38</v>
       </c>
-      <c r="AG42" s="0" t="n">
+      <c r="AG42">
         <v>107.95</v>
       </c>
-      <c r="AH42" s="0" t="n">
+      <c r="AH42">
         <v>19.8</v>
       </c>
-      <c r="AI42" s="0" t="n">
+      <c r="AI42">
         <v>66.64</v>
       </c>
-      <c r="AJ42" s="0" t="n">
+      <c r="AJ42">
         <v>99.48</v>
       </c>
-      <c r="AK42" s="0" t="n">
-        <v>142.77</v>
-      </c>
-      <c r="AL42" s="0" t="n">
-        <v>71.1</v>
-      </c>
-      <c r="AM42" s="0" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AN42" s="0" t="n">
-        <v>66.29</v>
-      </c>
-      <c r="AO42" s="0" t="n">
-        <v>77.18</v>
-      </c>
-      <c r="AP42" s="0" t="n">
+      <c r="AK42">
+        <v>142.77000000000001</v>
+      </c>
+      <c r="AL42">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AM42">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AN42">
+        <v>66.290000000000006</v>
+      </c>
+      <c r="AO42">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="AP42">
         <v>1.59</v>
       </c>
-      <c r="AQ42" s="0" t="n">
+      <c r="AQ42">
+        <v>91.99</v>
+      </c>
+      <c r="AR42">
         <v>61.03</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>410690</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>2013</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>41069000</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" t="s">
         <v>65</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" t="s">
         <v>48</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="J43" t="s">
         <v>66</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="K43">
         <v>345</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="L43">
         <v>170</v>
       </c>
-      <c r="M43" s="0" t="n">
+      <c r="M43">
         <v>10222603</v>
       </c>
-      <c r="N43" s="0" t="n">
+      <c r="N43">
         <v>8995861</v>
       </c>
-      <c r="O43" s="0" t="n">
+      <c r="O43">
         <v>345</v>
       </c>
-      <c r="P43" s="0" t="n">
+      <c r="P43">
         <v>9306931</v>
       </c>
-      <c r="Q43" s="0" t="n">
+      <c r="Q43">
         <v>2816410</v>
       </c>
-      <c r="R43" s="0" t="n">
+      <c r="R43">
         <v>6241921</v>
       </c>
-      <c r="S43" s="0" t="n">
+      <c r="S43">
         <v>1667163</v>
       </c>
-      <c r="T43" s="0" t="n">
-        <v>348384205.59</v>
-      </c>
-      <c r="U43" s="0" t="n">
-        <v>361462316.61</v>
-      </c>
-      <c r="V43" s="0" t="n">
+      <c r="T43">
+        <v>348384205.58999997</v>
+      </c>
+      <c r="U43">
+        <v>361462316.61000001</v>
+      </c>
+      <c r="V43">
         <v>7193</v>
       </c>
-      <c r="W43" s="0" t="n">
-        <v>787001048.33</v>
-      </c>
-      <c r="X43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="0" t="n">
+      <c r="W43">
+        <v>787001048.33000004</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
         <v>2.63</v>
       </c>
-      <c r="AE43" s="0" t="n">
+      <c r="AE43">
         <v>2.86</v>
       </c>
-      <c r="AF43" s="0" t="n">
+      <c r="AF43">
         <v>2.27</v>
       </c>
-      <c r="AG43" s="0" t="n">
+      <c r="AG43">
         <v>110.78</v>
       </c>
-      <c r="AH43" s="0" t="n">
+      <c r="AH43">
         <v>20.83</v>
       </c>
-      <c r="AI43" s="0" t="n">
+      <c r="AI43">
         <v>65.52</v>
       </c>
-      <c r="AJ43" s="0" t="n">
+      <c r="AJ43">
         <v>99.25</v>
       </c>
-      <c r="AK43" s="0" t="n">
+      <c r="AK43">
         <v>141.74</v>
       </c>
-      <c r="AL43" s="0" t="n">
+      <c r="AL43">
         <v>71.16</v>
       </c>
-      <c r="AM43" s="0" t="n">
+      <c r="AM43">
         <v>2.54</v>
       </c>
-      <c r="AN43" s="0" t="n">
+      <c r="AN43">
         <v>65.03</v>
       </c>
-      <c r="AO43" s="0" t="n">
+      <c r="AO43">
         <v>77.73</v>
       </c>
-      <c r="AP43" s="0" t="n">
+      <c r="AP43">
         <v>1.6</v>
       </c>
-      <c r="AQ43" s="0" t="n">
+      <c r="AQ43">
+        <v>91.04</v>
+      </c>
+      <c r="AR43">
         <v>61.06</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>410690</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>2012</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>41069000</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" t="s">
         <v>65</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" t="s">
         <v>48</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" t="s">
         <v>66</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44">
         <v>345</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="L44">
         <v>167</v>
       </c>
-      <c r="M44" s="0" t="n">
+      <c r="M44">
         <v>9831312</v>
       </c>
-      <c r="N44" s="0" t="n">
+      <c r="N44">
         <v>8611334</v>
       </c>
-      <c r="O44" s="0" t="n">
+      <c r="O44">
         <v>345</v>
       </c>
-      <c r="P44" s="0" t="n">
+      <c r="P44">
         <v>8909161</v>
       </c>
-      <c r="Q44" s="0" t="n">
+      <c r="Q44">
         <v>2722457</v>
       </c>
-      <c r="R44" s="0" t="n">
+      <c r="R44">
         <v>5834830</v>
       </c>
-      <c r="S44" s="0" t="n">
+      <c r="S44">
         <v>1564531</v>
       </c>
-      <c r="T44" s="0" t="n">
-        <v>208579099.96</v>
-      </c>
-      <c r="U44" s="0" t="n">
-        <v>240602631.85</v>
-      </c>
-      <c r="V44" s="0" t="n">
+      <c r="T44">
+        <v>208579099.96000001</v>
+      </c>
+      <c r="U44">
+        <v>240602631.84999999</v>
+      </c>
+      <c r="V44">
         <v>6869</v>
       </c>
-      <c r="W44" s="0" t="n">
-        <v>456593233.14</v>
-      </c>
-      <c r="X44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="0" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AE44" s="0" t="n">
+      <c r="W44">
+        <v>456593233.13999999</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AE44">
         <v>2.66</v>
       </c>
-      <c r="AF44" s="0" t="n">
+      <c r="AF44">
         <v>2.08</v>
       </c>
-      <c r="AG44" s="0" t="n">
+      <c r="AG44">
         <v>154.13</v>
       </c>
-      <c r="AH44" s="0" t="n">
+      <c r="AH44">
         <v>21.29</v>
       </c>
-      <c r="AI44" s="0" t="n">
+      <c r="AI44">
         <v>63.71</v>
       </c>
-      <c r="AJ44" s="0" t="n">
+      <c r="AJ44">
         <v>99.41</v>
       </c>
-      <c r="AK44" s="0" t="n">
+      <c r="AK44">
         <v>145.1</v>
       </c>
-      <c r="AL44" s="0" t="n">
+      <c r="AL44">
         <v>69.25</v>
       </c>
-      <c r="AM44" s="0" t="n">
+      <c r="AM44">
         <v>2.5</v>
       </c>
-      <c r="AN44" s="0" t="n">
+      <c r="AN44">
         <v>63.33</v>
       </c>
-      <c r="AO44" s="0" t="n">
+      <c r="AO44">
         <v>75.92</v>
       </c>
-      <c r="AP44" s="0" t="n">
+      <c r="AP44">
         <v>1.6</v>
       </c>
-      <c r="AQ44" s="0" t="n">
+      <c r="AQ44">
+        <v>90.62</v>
+      </c>
+      <c r="AR44">
         <v>59.35</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>410690</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>2011</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>41069000</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" t="s">
         <v>48</v>
       </c>
-      <c r="J45" s="0" t="s">
+      <c r="J45" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45">
         <v>344</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="L45">
         <v>164</v>
       </c>
-      <c r="M45" s="0" t="n">
+      <c r="M45">
         <v>9738579</v>
       </c>
-      <c r="N45" s="0" t="n">
+      <c r="N45">
         <v>8532110</v>
       </c>
-      <c r="O45" s="0" t="n">
+      <c r="O45">
         <v>344</v>
       </c>
-      <c r="P45" s="0" t="n">
+      <c r="P45">
         <v>8707488</v>
       </c>
-      <c r="Q45" s="0" t="n">
+      <c r="Q45">
         <v>2632468</v>
       </c>
-      <c r="R45" s="0" t="n">
+      <c r="R45">
         <v>5436765</v>
       </c>
-      <c r="S45" s="0" t="n">
+      <c r="S45">
         <v>1459012</v>
       </c>
-      <c r="T45" s="0" t="n">
+      <c r="T45">
         <v>123704054.62</v>
       </c>
-      <c r="U45" s="0" t="n">
+      <c r="U45">
         <v>207061806.94</v>
       </c>
-      <c r="V45" s="0" t="n">
+      <c r="V45">
         <v>6541</v>
       </c>
-      <c r="W45" s="0" t="n">
-        <v>354180358.18</v>
-      </c>
-      <c r="X45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="0" t="n">
+      <c r="W45">
+        <v>354180358.18000001</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
         <v>2.1</v>
       </c>
-      <c r="AE45" s="0" t="n">
+      <c r="AE45">
         <v>2.27</v>
       </c>
-      <c r="AF45" s="0" t="n">
+      <c r="AF45">
         <v>1.82</v>
       </c>
-      <c r="AG45" s="0" t="n">
+      <c r="AG45">
         <v>108.29</v>
       </c>
-      <c r="AH45" s="0" t="n">
+      <c r="AH45">
         <v>21.06</v>
       </c>
-      <c r="AI45" s="0" t="n">
+      <c r="AI45">
         <v>62.48</v>
       </c>
-      <c r="AJ45" s="0" t="n">
+      <c r="AJ45">
         <v>99.35</v>
       </c>
-      <c r="AK45" s="0" t="n">
+      <c r="AK45">
         <v>142.1</v>
       </c>
-      <c r="AL45" s="0" t="n">
+      <c r="AL45">
         <v>65.23</v>
       </c>
-      <c r="AM45" s="0" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AN45" s="0" t="n">
+      <c r="AM45">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AN45">
         <v>62.08</v>
       </c>
-      <c r="AO45" s="0" t="n">
+      <c r="AO45">
         <v>71.47</v>
       </c>
-      <c r="AP45" s="0" t="n">
+      <c r="AP45">
         <v>1.62</v>
       </c>
-      <c r="AQ45" s="0" t="n">
+      <c r="AQ45">
+        <v>89.41</v>
+      </c>
+      <c r="AR45">
         <v>55.83</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>410690</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>2010</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>41069000</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" t="s">
         <v>65</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" t="s">
         <v>47</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" t="s">
         <v>48</v>
       </c>
-      <c r="J46" s="0" t="s">
+      <c r="J46" t="s">
         <v>66</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46">
         <v>344</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="L46">
         <v>160</v>
       </c>
-      <c r="M46" s="0" t="n">
+      <c r="M46">
         <v>9674513</v>
       </c>
-      <c r="N46" s="0" t="n">
+      <c r="N46">
         <v>8419537</v>
       </c>
-      <c r="O46" s="0" t="n">
+      <c r="O46">
         <v>344</v>
       </c>
-      <c r="P46" s="0" t="n">
+      <c r="P46">
         <v>8506064</v>
       </c>
-      <c r="Q46" s="0" t="n">
+      <c r="Q46">
         <v>2547388</v>
       </c>
-      <c r="R46" s="0" t="n">
+      <c r="R46">
         <v>5114861</v>
       </c>
-      <c r="S46" s="0" t="n">
+      <c r="S46">
         <v>1372520</v>
       </c>
-      <c r="T46" s="0" t="n">
-        <v>118905007.82</v>
-      </c>
-      <c r="U46" s="0" t="n">
+      <c r="T46">
+        <v>118905007.81999999</v>
+      </c>
+      <c r="U46">
         <v>243860109.97</v>
       </c>
-      <c r="V46" s="0" t="n">
+      <c r="V46">
         <v>6468</v>
       </c>
-      <c r="W46" s="0" t="n">
-        <v>397231768.46</v>
-      </c>
-      <c r="AD46" s="0" t="n">
+      <c r="W46">
+        <v>397231768.45999998</v>
+      </c>
+      <c r="AD46">
         <v>1.86</v>
       </c>
-      <c r="AE46" s="0" t="n">
+      <c r="AE46">
         <v>2</v>
       </c>
-      <c r="AF46" s="0" t="n">
+      <c r="AF46">
         <v>1.62</v>
       </c>
-      <c r="AG46" s="0" t="n">
+      <c r="AG46">
         <v>102.39</v>
       </c>
-      <c r="AH46" s="0" t="n">
+      <c r="AH46">
         <v>20.47</v>
       </c>
-      <c r="AI46" s="0" t="n">
+      <c r="AI46">
         <v>61.09</v>
       </c>
-      <c r="AJ46" s="0" t="n">
+      <c r="AJ46">
         <v>99.24</v>
       </c>
-      <c r="AK46" s="0" t="n">
-        <v>135.2</v>
-      </c>
-      <c r="AL46" s="0" t="n">
+      <c r="AK46">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="AL46">
         <v>61.84</v>
       </c>
-      <c r="AM46" s="0" t="n">
+      <c r="AM46">
         <v>2.56</v>
       </c>
-      <c r="AN46" s="0" t="n">
+      <c r="AN46">
         <v>60.62</v>
       </c>
-      <c r="AO46" s="0" t="n">
+      <c r="AO46">
         <v>68.11</v>
       </c>
-      <c r="AP46" s="0" t="n">
+      <c r="AP46">
         <v>1.67</v>
       </c>
-      <c r="AQ46" s="0" t="n">
+      <c r="AQ46">
+        <v>87.92</v>
+      </c>
+      <c r="AR46">
         <v>52.87</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
